--- a/每周报告/甘特图.xlsx
+++ b/每周报告/甘特图.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CourseFile\软件工程\实验报告\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CourseFile\Code\Software Engineering\Hello-World\每周报告\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA7579D-7828-4814-B889-86E9D71B0B65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704809DF-6975-4B92-93E9-07A4ADA79B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="864" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,22 +434,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -553,22 +553,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>21</c:v>
@@ -844,40 +844,40 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43919</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1976,7 +1976,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2016,15 +2016,15 @@
         <v>43913</v>
       </c>
       <c r="C2" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D2">
-        <f>MEDIAN(0,C2-B2,F2)</f>
-        <v>6</v>
+        <f t="shared" ref="D2:D13" si="0">MEDIAN(0,C2-B2,F2)</f>
+        <v>7</v>
       </c>
       <c r="E2">
         <f>MAX(0,F2:F13-D2:D13)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -2038,15 +2038,15 @@
         <v>43913</v>
       </c>
       <c r="C3" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D3">
-        <f>MEDIAN(0,C3-B3,F3)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">MAX(0,F3:F14-D3:D14)</f>
-        <v>1</v>
+        <f t="shared" ref="E3:E13" si="1">MAX(0,F3:F14-D3:D14)</f>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -2060,15 +2060,15 @@
         <v>43913</v>
       </c>
       <c r="C4" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D4">
-        <f>MEDIAN(0,C4-B4,F4)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>21</v>
@@ -2082,15 +2082,15 @@
         <v>43913</v>
       </c>
       <c r="C5" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D5">
-        <f>MEDIAN(0,C5-B5,F5)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="E5">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -2104,15 +2104,15 @@
         <v>43913</v>
       </c>
       <c r="C6" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D6">
-        <f>MEDIAN(0,C6-B6,F6)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>21</v>
@@ -2126,15 +2126,15 @@
         <v>43924</v>
       </c>
       <c r="C7" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D7">
-        <f>MEDIAN(0,C7-B7,F7)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>7</v>
@@ -2148,14 +2148,14 @@
         <v>43931</v>
       </c>
       <c r="C8" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D8">
-        <f>MEDIAN(0,C8-B8,F8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="F8">
@@ -2170,14 +2170,14 @@
         <v>43936</v>
       </c>
       <c r="C9" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D9">
-        <f>MEDIAN(0,C9-B9,F9)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F9">
@@ -2192,14 +2192,14 @@
         <v>43952</v>
       </c>
       <c r="C10" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D10">
-        <f>MEDIAN(0,C10-B10,F10)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F10">
@@ -2214,14 +2214,14 @@
         <v>43926</v>
       </c>
       <c r="C11" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D11">
-        <f>MEDIAN(0,C11-B11,F11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="F11">
@@ -2236,14 +2236,14 @@
         <v>43961</v>
       </c>
       <c r="C12" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D12">
-        <f>MEDIAN(0,C12-B12,F12)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="F12">
@@ -2258,14 +2258,14 @@
         <v>43971</v>
       </c>
       <c r="C13" s="1">
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="D13">
-        <f>MEDIAN(0,C13-B13,F13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="F13">
